--- a/data/GestureData/Swimming_V01_Laleh_Raw_labels.xlsx
+++ b/data/GestureData/Swimming_V01_Laleh_Raw_labels.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>real_start</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>round_end</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -426,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0.57999999999999996</v>
       </c>
@@ -463,8 +469,11 @@
         <f>MROUND(B2,0.05)</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3.35</v>
       </c>
@@ -479,8 +488,11 @@
         <f t="shared" ref="D3:D22" si="1">MROUND(B3,0.05)</f>
         <v>5.3000000000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6.44</v>
       </c>
@@ -495,8 +507,11 @@
         <f t="shared" si="1"/>
         <v>8.4500000000000011</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>9.3800000000000008</v>
       </c>
@@ -511,8 +526,11 @@
         <f t="shared" si="1"/>
         <v>11.350000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>13.27</v>
       </c>
@@ -527,8 +545,11 @@
         <f t="shared" si="1"/>
         <v>15.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>16.27</v>
       </c>
@@ -543,8 +564,11 @@
         <f t="shared" si="1"/>
         <v>18.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>20.23</v>
       </c>
@@ -559,8 +583,11 @@
         <f t="shared" si="1"/>
         <v>22.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>23.2</v>
       </c>
@@ -575,8 +602,11 @@
         <f t="shared" si="1"/>
         <v>25.150000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>26.4</v>
       </c>
@@ -591,8 +621,11 @@
         <f t="shared" si="1"/>
         <v>28.450000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>30.23</v>
       </c>
@@ -607,8 +640,11 @@
         <f t="shared" si="1"/>
         <v>32.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>33.32</v>
       </c>
@@ -623,8 +659,11 @@
         <f t="shared" si="1"/>
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>35.92</v>
       </c>
@@ -639,8 +678,11 @@
         <f t="shared" si="1"/>
         <v>38.300000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>41.18</v>
       </c>
@@ -655,8 +697,11 @@
         <f t="shared" si="1"/>
         <v>43.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>44.11</v>
       </c>
@@ -671,8 +716,11 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>49.34</v>
       </c>
@@ -687,8 +735,11 @@
         <f t="shared" si="1"/>
         <v>51.300000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>54.17</v>
       </c>
@@ -703,8 +754,11 @@
         <f t="shared" si="1"/>
         <v>55.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>57.37</v>
       </c>
@@ -719,8 +773,11 @@
         <f t="shared" si="1"/>
         <v>59.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>60.2</v>
       </c>
@@ -735,8 +792,11 @@
         <f t="shared" si="1"/>
         <v>61.800000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>63.7</v>
       </c>
@@ -751,8 +811,11 @@
         <f t="shared" si="1"/>
         <v>65.650000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>66.7</v>
       </c>
@@ -767,8 +830,11 @@
         <f t="shared" si="1"/>
         <v>68.55</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>70.36</v>
       </c>
@@ -782,6 +848,9 @@
       <c r="D22">
         <f t="shared" si="1"/>
         <v>72.150000000000006</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
